--- a/data/georgia_census/qvemo-qartli/rustavi/age_dependency.xlsx
+++ b/data/georgia_census/qvemo-qartli/rustavi/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EFA1FAF-8B21-454C-9C84-91180BE3B4C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{394875D1-0AF3-4423-8911-E4277BF182BC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED3B2FF1-3F31-4042-9E59-33EFBE965F57}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2C7522-43DD-41A1-861A-FC0B121473EA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7730B7D-D46D-4338-AF3A-49585192AD87}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03B23A06-3E8A-4FAC-A1D2-B4229DF2DA85}"/>
 </file>